--- a/info/metricas/NN/RELU/NN10.xlsx
+++ b/info/metricas/NN/RELU/NN10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,31 +495,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7756260570138945</v>
+        <v>0.8129172522060433</v>
       </c>
       <c r="C2" t="n">
-        <v>83573.65068177079</v>
+        <v>68402.8254083207</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3813476112869</v>
+        <v>172.5602746057463</v>
       </c>
       <c r="E2" t="n">
-        <v>106.8443215942383</v>
+        <v>102.7271830749512</v>
       </c>
       <c r="F2" t="n">
-        <v>4711837.712236079</v>
+        <v>877296.4360956145</v>
       </c>
       <c r="G2" t="n">
-        <v>3011.558603515625</v>
+        <v>1980.004516601562</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7756305876311718</v>
+        <v>0.8129176121731069</v>
       </c>
       <c r="I2" t="n">
-        <v>7.336344546546795e+16</v>
+        <v>6.171831293142277e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>-491665.8811587848</v>
+        <v>-95296.879812382</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -537,31 +537,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.777839967173282</v>
+        <v>0.781806896700546</v>
       </c>
       <c r="C3" t="n">
-        <v>82441.14444769254</v>
+        <v>77938.25182497552</v>
       </c>
       <c r="D3" t="n">
-        <v>185.7264236026664</v>
+        <v>177.1992865369003</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1033666992188</v>
+        <v>107.6116558837891</v>
       </c>
       <c r="F3" t="n">
-        <v>4720608.508708972</v>
+        <v>900881.1727536011</v>
       </c>
       <c r="G3" t="n">
-        <v>3656.90640625</v>
+        <v>2733.57421875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7779309310996946</v>
+        <v>0.781942141689789</v>
       </c>
       <c r="I3" t="n">
-        <v>6.015850868380655e+16</v>
+        <v>5.694427388264995e+16</v>
       </c>
       <c r="J3" t="n">
-        <v>-701716.5654962853</v>
+        <v>-136238.2831256889</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -569,6 +569,342 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7954817229698681</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77633.17822073751</v>
+      </c>
+      <c r="D4" t="n">
+        <v>175.7451402578815</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103.2451754760742</v>
+      </c>
+      <c r="F4" t="n">
+        <v>893488.2930710698</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2218.177978515625</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.795487223778905</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.755415109534054e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-129650.1314581599</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8057736341095498</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75440.87393669868</v>
+      </c>
+      <c r="D5" t="n">
+        <v>176.9296190566551</v>
+      </c>
+      <c r="E5" t="n">
+        <v>103.2597827148437</v>
+      </c>
+      <c r="F5" t="n">
+        <v>899510.1832840347</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2146.3948828125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8057915527538895</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.683282827212546e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-118464.3464224034</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8163583265769192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68452.94624035564</v>
+      </c>
+      <c r="D6" t="n">
+        <v>172.2906361725113</v>
+      </c>
+      <c r="E6" t="n">
+        <v>103.90775390625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>875753.303664875</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1914.056030273438</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.816524289182213</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.133858735608371e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-124210.1124857535</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7817166443886215</v>
+      </c>
+      <c r="C7" t="n">
+        <v>82446.69852394293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187.4341511873849</v>
+      </c>
+      <c r="E7" t="n">
+        <v>114.5719030761719</v>
+      </c>
+      <c r="F7" t="n">
+        <v>952727.7904854774</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2473.633544921875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7820166476297145</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.25995797412679e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-139550.2153693091</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7922058651319271</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78653.47269875694</v>
+      </c>
+      <c r="D8" t="n">
+        <v>182.0103803031519</v>
+      </c>
+      <c r="E8" t="n">
+        <v>108.3885125732422</v>
+      </c>
+      <c r="F8" t="n">
+        <v>925158.7630809211</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1963.546020507812</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.7922908376302127</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.177102633184128e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-114296.4733453344</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8112767402979784</v>
+      </c>
+      <c r="C9" t="n">
+        <v>70662.14184368149</v>
+      </c>
+      <c r="D9" t="n">
+        <v>171.8645214297737</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101.3181567382812</v>
+      </c>
+      <c r="F9" t="n">
+        <v>873587.3624275399</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1974.724609375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8113400002745019</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.87697539932626e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-113515.7220714051</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7999811692651516</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71039.6154734248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>174.6038180047312</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105.8486709594727</v>
+      </c>
+      <c r="F10" t="n">
+        <v>887511.2069180489</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2070.47705078125</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8000089051727148</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.667161816416655e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-120075.0376500959</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RELU10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7604965646660604</v>
+      </c>
+      <c r="C11" t="n">
+        <v>88101.86482024292</v>
+      </c>
+      <c r="D11" t="n">
+        <v>188.6727185081371</v>
+      </c>
+      <c r="E11" t="n">
+        <v>114.1853784179688</v>
+      </c>
+      <c r="F11" t="n">
+        <v>959023.4281768608</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2695.577880859375</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7604978777646256</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.980167843220058e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-137678.7073939926</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>RELU10</t>
         </is>
